--- a/data/trans_orig/P35_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Estudios-trans_orig.xlsx
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>39,59%</t>
+          <t>40,2%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>47,69%</t>
+          <t>47,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>47,38%</t>
+          <t>47,24%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>53,01%</t>
+          <t>52,81%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>45,13%</t>
+          <t>45,48%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>49,98%</t>
+          <t>50,13%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>52,31%</t>
+          <t>52,28%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>60,41%</t>
+          <t>59,8%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>46,99%</t>
+          <t>47,19%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>52,62%</t>
+          <t>52,76%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>50,02%</t>
+          <t>49,87%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>54,87%</t>
+          <t>54,52%</t>
         </is>
       </c>
     </row>
@@ -908,12 +908,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>30,68%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,98%</t>
+          <t>36,03%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -929,12 +929,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>29,84%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>38,3%</t>
+          <t>38,32%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -950,12 +950,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>31,1%</t>
+          <t>31,49%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>36,35%</t>
+          <t>36,37%</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>64,02%</t>
+          <t>63,97%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>69,43%</t>
+          <t>69,32%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>61,7%</t>
+          <t>61,68%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>70,21%</t>
+          <t>70,16%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>63,65%</t>
+          <t>63,63%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>68,9%</t>
+          <t>68,51%</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>29,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,96%</t>
+          <t>37,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,22%</t>
+          <t>25,05%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>31,63%</t>
+          <t>31,36%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>28,09%</t>
+          <t>28,02%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>32,98%</t>
+          <t>33,02%</t>
         </is>
       </c>
     </row>
@@ -1196,12 +1196,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>63,04%</t>
+          <t>62,98%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>70,54%</t>
+          <t>70,84%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>68,37%</t>
+          <t>68,64%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>74,78%</t>
+          <t>74,95%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>67,02%</t>
+          <t>66,98%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>71,91%</t>
+          <t>71,98%</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>32,64%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>36,88%</t>
+          <t>37,03%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>33,55%</t>
+          <t>33,39%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>39,36%</t>
+          <t>39,12%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>34,18%</t>
+          <t>34,15%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>37,67%</t>
+          <t>37,64%</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
         <v>2080</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>2193490</v>
+        <v>2193489</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
@@ -1413,12 +1413,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>63,12%</t>
+          <t>62,97%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>67,19%</t>
+          <t>67,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1434,19 +1434,19 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>60,64%</t>
+          <t>60,88%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>66,45%</t>
+          <t>66,61%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
         <v>5356</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>4569002</v>
+        <v>4569001</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
@@ -1455,12 +1455,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>62,33%</t>
+          <t>62,36%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>65,82%</t>
+          <t>65,85%</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>8709</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>7169669</v>
+        <v>7169668</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>

--- a/data/trans_orig/P35_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Estudios-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>40,2%</t>
+          <t>39,59%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>47,72%</t>
+          <t>47,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>47,24%</t>
+          <t>47,38%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>52,81%</t>
+          <t>53,01%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>45,48%</t>
+          <t>45,13%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>50,13%</t>
+          <t>49,98%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>52,28%</t>
+          <t>52,31%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>59,8%</t>
+          <t>60,41%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>47,19%</t>
+          <t>46,99%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>52,76%</t>
+          <t>52,62%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>49,87%</t>
+          <t>50,02%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>54,52%</t>
+          <t>54,87%</t>
         </is>
       </c>
     </row>
@@ -908,12 +908,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>30,57%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,03%</t>
+          <t>35,98%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -929,12 +929,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>38,32%</t>
+          <t>38,3%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -950,12 +950,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>31,1%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>36,37%</t>
+          <t>36,35%</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>63,97%</t>
+          <t>64,02%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>69,32%</t>
+          <t>69,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>61,68%</t>
+          <t>61,7%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>70,16%</t>
+          <t>70,21%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>63,63%</t>
+          <t>63,65%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>68,51%</t>
+          <t>68,9%</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>29,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,02%</t>
+          <t>36,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>31,63%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>28,09%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>33,02%</t>
+          <t>32,98%</t>
         </is>
       </c>
     </row>
@@ -1196,12 +1196,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>62,98%</t>
+          <t>63,04%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>70,84%</t>
+          <t>70,54%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>68,64%</t>
+          <t>68,37%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>74,95%</t>
+          <t>74,78%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>66,98%</t>
+          <t>67,02%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>71,98%</t>
+          <t>71,91%</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32,64%</t>
+          <t>32,81%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,03%</t>
+          <t>36,88%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>33,55%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>39,12%</t>
+          <t>39,36%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>34,15%</t>
+          <t>34,18%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>37,64%</t>
+          <t>37,67%</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
         <v>2080</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>2193489</v>
+        <v>2193490</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
@@ -1413,12 +1413,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>62,97%</t>
+          <t>63,12%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>67,36%</t>
+          <t>67,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1434,19 +1434,19 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>60,88%</t>
+          <t>60,64%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>66,61%</t>
+          <t>66,45%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
         <v>5356</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>4569001</v>
+        <v>4569002</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
@@ -1455,12 +1455,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>62,36%</t>
+          <t>62,33%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>65,85%</t>
+          <t>65,82%</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>8709</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>7169668</v>
+        <v>7169669</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>

--- a/data/trans_orig/P35_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Estudios-trans_orig.xlsx
@@ -682,63 +682,63 @@
         <v>316</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>236864</v>
+        <v>218432</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>43,73%</t>
+          <t>42,42%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>39,59%</t>
+          <t>38,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>47,69%</t>
+          <t>46,32%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
         <v>697</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>416368</v>
+        <v>368488</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>50,04%</t>
+          <t>48,99%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>47,38%</t>
+          <t>46,39%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>53,01%</t>
+          <t>51,78%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
         <v>1013</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>653232</v>
+        <v>586920</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>47,55%</t>
+          <t>46,32%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>45,13%</t>
+          <t>43,95%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>49,98%</t>
+          <t>48,68%</t>
         </is>
       </c>
     </row>
@@ -753,63 +753,63 @@
         <v>375</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>304770</v>
+        <v>296506</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>56,27%</t>
+          <t>57,58%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>52,31%</t>
+          <t>53,68%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>60,41%</t>
+          <t>62,0%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
         <v>727</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>415751</v>
+        <v>383734</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,96%</t>
+          <t>51,01%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>46,99%</t>
+          <t>48,22%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>52,62%</t>
+          <t>53,61%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
         <v>1102</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>720520</v>
+        <v>680240</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>52,45%</t>
+          <t>53,68%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>50,02%</t>
+          <t>51,32%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>54,87%</t>
+          <t>56,05%</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>1424</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>832119</v>
+        <v>752222</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>2115</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1373752</v>
+        <v>1267160</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
@@ -899,63 +899,63 @@
         <v>734</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>724700</v>
+        <v>665122</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,52%</t>
+          <t>29,04%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,98%</t>
+          <t>33,23%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
         <v>1090</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>800557</v>
+        <v>709944</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,62%</t>
+          <t>31,75%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>38,3%</t>
+          <t>36,11%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
         <v>1824</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1525258</v>
+        <v>1375066</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>34,59%</t>
+          <t>30,38%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>31,1%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>36,35%</t>
+          <t>33,88%</t>
         </is>
       </c>
     </row>
@@ -970,63 +970,63 @@
         <v>1258</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1437322</v>
+        <v>1625205</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>66,48%</t>
+          <t>70,96%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>64,02%</t>
+          <t>66,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>69,43%</t>
+          <t>78,82%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
         <v>1828</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1446919</v>
+        <v>1525970</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>64,38%</t>
+          <t>68,25%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>61,7%</t>
+          <t>63,89%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>70,21%</t>
+          <t>77,16%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
         <v>3086</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2884240</v>
+        <v>3151175</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>65,41%</t>
+          <t>69,62%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>63,65%</t>
+          <t>66,12%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>68,9%</t>
+          <t>75,56%</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
         <v>2918</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>2247476</v>
+        <v>2235914</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>4910</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4409498</v>
+        <v>4526241</v>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
@@ -1116,63 +1116,63 @@
         <v>234</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>221641</v>
+        <v>206304</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>31,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>28,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,96%</t>
+          <t>36,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
         <v>282</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>200536</v>
+        <v>182087</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28,11%</t>
+          <t>27,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,22%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>31,63%</t>
+          <t>31,18%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
         <v>516</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>422178</v>
+        <v>388392</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
+          <t>29,72%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>28,09%</t>
+          <t>27,47%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>32,98%</t>
+          <t>32,23%</t>
         </is>
       </c>
     </row>
@@ -1187,63 +1187,63 @@
         <v>447</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>451398</v>
+        <v>440319</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>67,07%</t>
+          <t>68,1%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>63,04%</t>
+          <t>63,95%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>70,54%</t>
+          <t>71,58%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
         <v>721</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>512843</v>
+        <v>477916</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>71,89%</t>
+          <t>72,41%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>68,37%</t>
+          <t>68,82%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>74,78%</t>
+          <t>75,17%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
         <v>1168</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>964240</v>
+        <v>918235</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>69,55%</t>
+          <t>70,28%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>67,02%</t>
+          <t>67,77%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>71,91%</t>
+          <t>72,53%</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>1003</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>713379</v>
+        <v>660003</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>1684</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1386418</v>
+        <v>1306627</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
@@ -1333,63 +1333,63 @@
         <v>1284</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1183205</v>
+        <v>1089858</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,04%</t>
+          <t>31,57%</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>24,09%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>36,88%</t>
+          <t>34,55%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
         <v>2069</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>1417462</v>
+        <v>1260519</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>34,55%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>33,55%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>39,36%</t>
+          <t>37,77%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
         <v>3353</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2600667</v>
+        <v>2350378</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>36,27%</t>
+          <t>33,1%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>34,18%</t>
+          <t>28,39%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>37,67%</t>
+          <t>35,57%</t>
         </is>
       </c>
     </row>
@@ -1404,63 +1404,63 @@
         <v>2080</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>2193490</v>
+        <v>2362031</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>64,96%</t>
+          <t>68,43%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>63,12%</t>
+          <t>65,45%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>67,19%</t>
+          <t>75,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
         <v>3276</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>2375512</v>
+        <v>2387620</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>62,63%</t>
+          <t>65,45%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>60,64%</t>
+          <t>62,23%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>66,45%</t>
+          <t>72,16%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
         <v>5356</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>4569002</v>
+        <v>4749650</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>63,73%</t>
+          <t>66,9%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>62,33%</t>
+          <t>64,43%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>65,82%</t>
+          <t>71,61%</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>5345</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>3792974</v>
+        <v>3648139</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>8709</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>7169669</v>
+        <v>7100028</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>

--- a/data/trans_orig/P35_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Estudios-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +532,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
+          <t>Población según si su médico u otra persona le ha aconsejado que realice algún tipo de ejercicio físico en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +556,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -584,65 +596,95 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
@@ -666,6 +708,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -675,70 +723,112 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>316</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>218432</v>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>37916</t>
+        </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>42,42%</t>
+          <t>28822</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>38,0%</t>
+          <t>50623</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>46,32%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>697</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>368488</v>
+          <t>7,36%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5,6%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9,83%</t>
+        </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>48,99%</t>
+          <t>101</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>46,39%</t>
+          <t>54914</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>51,78%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>1013</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>586920</v>
+          <t>44372</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>65511</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7,3%</t>
+        </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>46,32%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>43,95%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>48,68%</t>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>92831</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>79389</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>109858</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>7,33%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>6,27%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>8,67%</t>
         </is>
       </c>
     </row>
@@ -746,70 +836,112 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>375</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>296506</v>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14428</t>
+        </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57,58%</t>
+          <t>8740</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>53,68%</t>
+          <t>21845</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>62,0%</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>727</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>383734</v>
+          <t>2,8%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4,24%</t>
+        </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,01%</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>48,22%</t>
+          <t>31572</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>53,61%</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>1102</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>680240</v>
+          <t>24644</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>41024</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
+        </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>53,68%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>51,32%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>56,05%</t>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>46001</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>37120</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>57449</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>3,63%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>4,53%</t>
         </is>
       </c>
     </row>
@@ -817,145 +949,225 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>691</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>514938</v>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>166087</t>
+        </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>149087</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>186307</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>1424</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>752222</v>
+          <t>32,25%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>28,95%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>36,18%</t>
+        </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>538</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>282002</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>2115</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>1267160</v>
+          <t>262850</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>305254</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>37,49%</t>
+        </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>34,94%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>40,58%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>448089</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>420582</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>475725</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>35,36%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>33,19%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>37,54%</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Secundarios</t>
-        </is>
-      </c>
+      <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>734</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>665122</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>296506</t>
+        </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,04%</t>
+          <t>274682</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>314379</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,23%</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1090</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>709944</v>
+          <t>57,58%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>53,34%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>61,05%</t>
+        </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,75%</t>
+          <t>727</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>383734</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>36,11%</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>1824</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>1375066</v>
+          <t>362262</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>405706</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>51,01%</t>
+        </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>30,38%</t>
+          <t>48,16%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>53,93%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>1102</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>680240</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>651468</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>709387</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>53,68%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>51,41%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>55,98%</t>
         </is>
       </c>
     </row>
@@ -963,216 +1175,342 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>1258</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>1625205</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>514938</t>
+        </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>70,96%</t>
+          <t>514938</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>66,77%</t>
+          <t>514938</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>78,82%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1828</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>1525970</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>68,25%</t>
+          <t>1424</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>63,89%</t>
+          <t>752222</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>77,16%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>3086</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>3151175</v>
+          <t>752222</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>752222</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>69,62%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>66,12%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>75,56%</t>
+          <t>2115</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1267160</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>1267160</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1267160</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>1992</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>2290327</v>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>185923</t>
+        </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>124834</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>224528</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>2918</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>2235914</v>
+          <t>8,12%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5,45%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9,8%</t>
+        </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>248</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>181747</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>4910</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>4526241</v>
+          <t>132608</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>218286</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>8,13%</t>
+        </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>367670</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>290877</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>424357</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>8,12%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>6,43%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>9,38%</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Universitarios</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>234</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>206304</v>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>56275</t>
+        </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,9%</t>
+          <t>37910</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>73887</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,05%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>282</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>182087</v>
+          <t>2,46%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3,23%</t>
+        </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,59%</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>24,83%</t>
+          <t>62143</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>31,18%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>516</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>388392</v>
+          <t>42699</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>78331</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
+        </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>118418</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>92847</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>145223</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>2,05%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>3,21%</t>
         </is>
       </c>
     </row>
@@ -1180,70 +1518,112 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>447</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>440319</v>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>422924</t>
+        </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>68,1%</t>
+          <t>306594</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>63,95%</t>
+          <t>491062</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>71,58%</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>721</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>477916</v>
+          <t>18,47%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13,39%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>21,44%</t>
+        </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>72,41%</t>
+          <t>752</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>68,82%</t>
+          <t>466053</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>75,17%</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>1168</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>918235</v>
+          <t>338873</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>533790</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>20,84%</t>
+        </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>70,28%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>67,77%</t>
+          <t>23,87%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>72,53%</t>
+          <t>1236</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>888977</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>693316</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>996118</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>19,64%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>15,32%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>22,01%</t>
         </is>
       </c>
     </row>
@@ -1251,216 +1631,342 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>681</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>646623</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1258</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1625205</t>
+        </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1526410</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1821631</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1003</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>660003</v>
+          <t>70,96%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>66,65%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>79,54%</t>
+        </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1828</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1525970</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>1684</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>1306627</v>
+          <t>1421226</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1744868</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>68,25%</t>
+        </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>63,56%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>78,04%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3086</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>3151175</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>2990785</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>3439389</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>69,62%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>66,08%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>75,99%</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>1284</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>1089858</v>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2290327</t>
+        </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,57%</t>
+          <t>2290327</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,09%</t>
+          <t>2290327</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>34,55%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>2069</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>1260519</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,55%</t>
+          <t>2918</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>2235914</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>37,77%</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>3353</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>2350378</v>
+          <t>2235914</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2235914</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>33,1%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>35,57%</t>
+          <t>4910</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>4526241</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>4526241</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>4526241</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>2080</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>2362031</v>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>26945</t>
+        </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>68,43%</t>
+          <t>17339</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>65,45%</t>
+          <t>38530</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>75,91%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>3276</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>2387620</v>
+          <t>4,17%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2,68%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5,96%</t>
+        </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>65,45%</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>62,23%</t>
+          <t>16141</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>72,16%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>5356</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>4749650</v>
+          <t>10253</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>25187</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2,45%</t>
+        </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>66,9%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>64,43%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>71,61%</t>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>43086</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>32087</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>57515</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>3,3%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>2,46%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>4,4%</t>
         </is>
       </c>
     </row>
@@ -1468,75 +1974,1025 @@
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>3364</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>3451889</v>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>12265</t>
+        </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>6142</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>21373</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>5345</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>3648139</v>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3,31%</t>
+        </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>11596</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>8709</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>7100028</v>
+          <t>6749</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>19581</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1,76%</t>
+        </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>23861</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>15383</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>35824</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>2,74%</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>167094</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>145239</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>191829</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>25,84%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>22,46%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>29,67%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>154350</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>136255</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>174441</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>23,39%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>20,64%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>26,43%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>321445</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>293385</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>351648</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>24,6%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>22,45%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>26,91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>440319</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>415772</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>464919</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>68,1%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>64,3%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>71,9%</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>477916</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>456759</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>497350</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>72,41%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>69,21%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>75,36%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>918235</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>886178</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>949910</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>70,28%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>67,82%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>72,7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>646623</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>646623</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>646623</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1684</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1306627</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>1306627</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>1306627</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>250784</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>196191</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>292674</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>8,48%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>252802</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>204437</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>287236</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>6,93%</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>5,6%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>7,87%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>631</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>503586</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>430911</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>557316</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>7,09%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>6,07%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>7,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>82969</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>63102</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>105162</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3,05%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>105312</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>84079</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>127264</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2,89%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>188281</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>157835</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>217973</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>2,65%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>3,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>925</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>756105</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>591179</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>834239</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>21,9%</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>17,13%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>24,17%</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1532</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>902406</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>727903</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>979623</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>24,74%</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>19,95%</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>26,85%</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>2457</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>1658511</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>1448174</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>1797295</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>23,36%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>20,4%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>25,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2080</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2362031</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2251735</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2582130</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>68,43%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>65,23%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>74,8%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3276</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2387620</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2282528</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2639038</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>65,45%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>62,57%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>72,34%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>5356</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>4749650</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>4566736</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>5064607</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>66,9%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>64,32%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>71,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3364</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3451889</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3451889</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3451889</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>5345</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>3648139</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>3648139</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>3648139</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>8709</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>7100028</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>7100028</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>7100028</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
@@ -1544,14 +3000,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A4:A8"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
